--- a/project/faculty_metrics.xlsx
+++ b/project/faculty_metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca0a0503dbbe0ac8/Documents/techsprout/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E00D24-6F19-41F9-B851-31EC12858671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{92E00D24-6F19-41F9-B851-31EC12858671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F74CDF3-1379-479B-9FEA-A79D13FC8215}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{ABF012AB-602A-4642-A3AD-8BA3B8EE6DF8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABF012AB-602A-4642-A3AD-8BA3B8EE6DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -590,9 +590,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -630,7 +630,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -736,7 +736,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -878,7 +878,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -889,12 +889,14 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">

--- a/project/faculty_metrics.xlsx
+++ b/project/faculty_metrics.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{92E00D24-6F19-41F9-B851-31EC12858671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F74CDF3-1379-479B-9FEA-A79D13FC8215}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABF012AB-602A-4642-A3AD-8BA3B8EE6DF8}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="11856" xr2:uid="{ABF012AB-602A-4642-A3AD-8BA3B8EE6DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,6 +587,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -888,9 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EB2196-06C4-46B3-A825-39D2CBADA2AB}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/project/faculty_metrics.xlsx
+++ b/project/faculty_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca0a0503dbbe0ac8/Documents/techsprout/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{92E00D24-6F19-41F9-B851-31EC12858671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F74CDF3-1379-479B-9FEA-A79D13FC8215}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{92E00D24-6F19-41F9-B851-31EC12858671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C0643B-64CC-40C9-9308-66AD6C096991}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="11856" xr2:uid="{ABF012AB-602A-4642-A3AD-8BA3B8EE6DF8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABF012AB-602A-4642-A3AD-8BA3B8EE6DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
   <si>
     <t>dLBhK18AAAAJ</t>
   </si>
@@ -72,21 +72,12 @@
     <t>80zWafkAAAAJ</t>
   </si>
   <si>
-    <t>Suvarna Udgire</t>
-  </si>
-  <si>
-    <t>Not Found</t>
-  </si>
-  <si>
     <t>Neelam Punjabi</t>
   </si>
   <si>
     <t>7j1Uqu4AAAAJ</t>
   </si>
   <si>
-    <t>Priyanka Shrivastava</t>
-  </si>
-  <si>
     <t>Harish Ojha</t>
   </si>
   <si>
@@ -144,27 +135,12 @@
     <t>Ayw8aYMAAAAJ</t>
   </si>
   <si>
-    <t>Dr. Kavita Shirsat</t>
-  </si>
-  <si>
-    <t>Pankaj Vanwari</t>
-  </si>
-  <si>
     <t>Dr. Sanjeev Dwivedi</t>
   </si>
   <si>
     <t>xnhRW4kAAAAJ</t>
   </si>
   <si>
-    <t>Devendra Pandit</t>
-  </si>
-  <si>
-    <t>Sneha Sangana</t>
-  </si>
-  <si>
-    <t>Suvarna Sapre</t>
-  </si>
-  <si>
     <t>Dr. Amit Nerurkar</t>
   </si>
   <si>
@@ -210,9 +186,6 @@
     <t>4Jpc_fwAAAAJ</t>
   </si>
   <si>
-    <t>Amol Sakhalkar</t>
-  </si>
-  <si>
     <t>Dr. Arun Chavan</t>
   </si>
   <si>
@@ -240,21 +213,12 @@
     <t>KIKDU78AAAAJ</t>
   </si>
   <si>
-    <t>Dr. Pravin Annadate</t>
-  </si>
-  <si>
     <t>Prof. Uma Jaishankar</t>
   </si>
   <si>
     <t>4XCkEPYAAAAJ</t>
   </si>
   <si>
-    <t>Prof. Pranita Padhye</t>
-  </si>
-  <si>
-    <t>Prof. Amaya Pethe</t>
-  </si>
-  <si>
     <t>Prof. Javed Pate</t>
   </si>
   <si>
@@ -267,30 +231,18 @@
     <t>Wiytp9MAAAAJ</t>
   </si>
   <si>
-    <t>Dr. Sheetal Patil</t>
-  </si>
-  <si>
     <t>Prof. Akhil Masurkar</t>
   </si>
   <si>
     <t>wMyhs_u1VdUC</t>
   </si>
   <si>
-    <t>Prof. Manoj Suryawanshi</t>
-  </si>
-  <si>
     <t>Prof. Rajashree Soman</t>
   </si>
   <si>
     <t>DGxZszwAAAAJ</t>
   </si>
   <si>
-    <t>Prof. Nisy Mathew</t>
-  </si>
-  <si>
-    <t>Dr. Akshatha Bhat</t>
-  </si>
-  <si>
     <t>Dr. Vidya Chitre</t>
   </si>
   <si>
@@ -369,9 +321,6 @@
     <t>YLVUpCwAAAAJ</t>
   </si>
   <si>
-    <t>Prof. Shruti Agarwal</t>
-  </si>
-  <si>
     <t>Prof. Bushra Shaikh</t>
   </si>
   <si>
@@ -408,18 +357,12 @@
     <t>ENTC</t>
   </si>
   <si>
-    <t>Dr. Saurabh Mehta</t>
-  </si>
-  <si>
     <t>Dr. Sheetal Mapare</t>
   </si>
   <si>
     <t>ouNRfRUAAAAJ</t>
   </si>
   <si>
-    <t>Dr. Dhananjay Patel</t>
-  </si>
-  <si>
     <t>Vibha Wali</t>
   </si>
   <si>
@@ -465,9 +408,6 @@
     <t>qsnDfLwAAAAJ</t>
   </si>
   <si>
-    <t>Vaibhav Kshirsagar</t>
-  </si>
-  <si>
     <t>Satendra Mane</t>
   </si>
   <si>
@@ -490,37 +430,14 @@
   </si>
   <si>
     <t>_HcG56YAAAAJ</t>
-  </si>
-  <si>
-    <t>Prof. Sandeep Wali</t>
-  </si>
-  <si>
-    <t>Nidhi Bharati</t>
-  </si>
-  <si>
-    <t>Ms. Asmita Neve</t>
-  </si>
-  <si>
-    <t>Mr. Tushar Walawalkar</t>
-  </si>
-  <si>
-    <t>Dr. Anil Mehta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -563,12 +480,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -890,9 +804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EB2196-06C4-46B3-A825-39D2CBADA2AB}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -902,971 +818,704 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>25</v>
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>25</v>
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>25</v>
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>25</v>
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>25</v>
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>25</v>
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>25</v>
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>25</v>
+      <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>25</v>
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>25</v>
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>61</v>
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>61</v>
+      <c r="A32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>61</v>
+      <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>61</v>
+      <c r="A34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>61</v>
+      <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>61</v>
+      <c r="A36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>61</v>
+      <c r="A37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>61</v>
+      <c r="A38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>61</v>
+      <c r="A39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>61</v>
+      <c r="A40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>61</v>
+      <c r="A41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>61</v>
+      <c r="A42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>61</v>
+      <c r="A43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>61</v>
+      <c r="A44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>61</v>
+      <c r="A45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>61</v>
+      <c r="A46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>87</v>
+      <c r="A47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>87</v>
+      <c r="A48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>87</v>
+      <c r="A49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>87</v>
+      <c r="A50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>87</v>
+      <c r="A51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>87</v>
+      <c r="A52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>87</v>
+      <c r="A53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>87</v>
+      <c r="A54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>87</v>
+      <c r="A55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>87</v>
+      <c r="A56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>87</v>
+      <c r="A58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>87</v>
+      <c r="A59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>87</v>
+      <c r="A60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>87</v>
+      <c r="A61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>87</v>
+      <c r="A62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>123</v>
+      <c r="C63" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
